--- a/results/mp/logistic/corona/confidence/210/stop-words-masking-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/stop-words-masking-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,30 +43,30 @@
     <t>crude</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
+    <t>war</t>
+  </si>
+  <si>
     <t>die</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>drop</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
@@ -94,48 +94,48 @@
     <t>free</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>confidence</t>
+    <t>good</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
@@ -145,25 +145,28 @@
     <t>like</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>please</t>
+    <t>relief</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
-    <t>relief</t>
+    <t>well</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>care</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
 </sst>
 </file>
@@ -521,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -532,7 +535,7 @@
         <v>22</v>
       </c>
       <c r="J1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -590,13 +593,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8235294117647058</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -608,19 +611,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K3">
-        <v>0.9347826086956522</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -632,7 +635,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -640,13 +643,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8116438356164384</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C4">
-        <v>237</v>
+        <v>30</v>
       </c>
       <c r="D4">
-        <v>237</v>
+        <v>30</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -658,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>24</v>
@@ -690,13 +693,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7837837837837838</v>
+        <v>0.815068493150685</v>
       </c>
       <c r="C5">
-        <v>29</v>
+        <v>238</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>238</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -708,19 +711,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K5">
-        <v>0.925</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="L5">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M5">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -732,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -764,13 +767,13 @@
         <v>26</v>
       </c>
       <c r="K6">
-        <v>0.8611111111111112</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L6">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="M6">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -782,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -790,13 +793,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.75</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="C7">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -808,19 +811,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K7">
-        <v>0.8571428571428571</v>
+        <v>0.814621409921671</v>
       </c>
       <c r="L7">
-        <v>96</v>
+        <v>312</v>
       </c>
       <c r="M7">
-        <v>96</v>
+        <v>312</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -832,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -840,13 +843,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5423728813559322</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="C8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -858,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K8">
-        <v>0.8328981723237598</v>
+        <v>0.7906976744186046</v>
       </c>
       <c r="L8">
-        <v>319</v>
+        <v>34</v>
       </c>
       <c r="M8">
-        <v>319</v>
+        <v>34</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -882,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>64</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -890,13 +893,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5343915343915344</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C9">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D9">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -908,19 +911,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K9">
-        <v>0.8170731707317073</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L9">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="M9">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -932,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -940,13 +943,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5294117647058824</v>
+        <v>0.5310077519379846</v>
       </c>
       <c r="C10">
-        <v>27</v>
+        <v>274</v>
       </c>
       <c r="D10">
-        <v>27</v>
+        <v>274</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -958,19 +961,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>24</v>
+        <v>242</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K10">
-        <v>0.8103448275862069</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L10">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="M10">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -982,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -990,13 +993,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5271317829457365</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="C11">
-        <v>272</v>
+        <v>26</v>
       </c>
       <c r="D11">
-        <v>272</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1008,19 +1011,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>244</v>
+        <v>25</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K11">
-        <v>0.8055555555555556</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1032,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1040,13 +1043,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4496644295302014</v>
+        <v>0.4765100671140939</v>
       </c>
       <c r="C12">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D12">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1058,19 +1061,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K12">
-        <v>0.7924528301886793</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L12">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="M12">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1082,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1114,13 +1117,13 @@
         <v>33</v>
       </c>
       <c r="K13">
-        <v>0.7878787878787878</v>
+        <v>0.775</v>
       </c>
       <c r="L13">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="M13">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1132,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1140,13 +1143,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.2261904761904762</v>
+        <v>0.2658730158730159</v>
       </c>
       <c r="C14">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="D14">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1158,19 +1161,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K14">
-        <v>0.7872340425531915</v>
+        <v>0.7735849056603774</v>
       </c>
       <c r="L14">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="M14">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1182,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1190,13 +1193,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.1420911528150134</v>
+        <v>0.1340482573726542</v>
       </c>
       <c r="C15">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D15">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1208,19 +1211,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K15">
-        <v>0.7734375</v>
+        <v>0.7676056338028169</v>
       </c>
       <c r="L15">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="M15">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1232,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1240,37 +1243,37 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.0103126007089913</v>
+        <v>0.01128304319793682</v>
       </c>
       <c r="C16">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D16">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E16">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="F16">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
       </c>
       <c r="H16">
-        <v>3071</v>
+        <v>3067</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K16">
-        <v>0.7676056338028169</v>
+        <v>0.765625</v>
       </c>
       <c r="L16">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="M16">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1282,7 +1285,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1290,13 +1293,13 @@
         <v>37</v>
       </c>
       <c r="K17">
-        <v>0.7625</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L17">
-        <v>122</v>
+        <v>25</v>
       </c>
       <c r="M17">
-        <v>122</v>
+        <v>25</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1308,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>38</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1342,13 +1345,13 @@
         <v>39</v>
       </c>
       <c r="K19">
-        <v>0.7209302325581395</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="L19">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M19">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1360,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1394,13 +1397,13 @@
         <v>41</v>
       </c>
       <c r="K21">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
       <c r="L21">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M21">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1412,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1420,13 +1423,13 @@
         <v>42</v>
       </c>
       <c r="K22">
-        <v>0.6411764705882353</v>
+        <v>0.6441176470588236</v>
       </c>
       <c r="L22">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M22">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1438,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1446,13 +1449,13 @@
         <v>43</v>
       </c>
       <c r="K23">
-        <v>0.6307692307692307</v>
+        <v>0.5941422594142259</v>
       </c>
       <c r="L23">
-        <v>41</v>
+        <v>142</v>
       </c>
       <c r="M23">
-        <v>41</v>
+        <v>142</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1464,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>24</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1472,13 +1475,13 @@
         <v>44</v>
       </c>
       <c r="K24">
-        <v>0.5899581589958159</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L24">
-        <v>141</v>
+        <v>38</v>
       </c>
       <c r="M24">
-        <v>141</v>
+        <v>38</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1490,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>98</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1498,13 +1501,13 @@
         <v>45</v>
       </c>
       <c r="K25">
-        <v>0.5830508474576271</v>
+        <v>0.58</v>
       </c>
       <c r="L25">
-        <v>172</v>
+        <v>29</v>
       </c>
       <c r="M25">
-        <v>172</v>
+        <v>29</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1516,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>123</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1524,13 +1527,13 @@
         <v>46</v>
       </c>
       <c r="K26">
-        <v>0.58</v>
+        <v>0.5796610169491525</v>
       </c>
       <c r="L26">
-        <v>29</v>
+        <v>171</v>
       </c>
       <c r="M26">
-        <v>29</v>
+        <v>171</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1542,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>21</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1550,25 +1553,25 @@
         <v>47</v>
       </c>
       <c r="K27">
-        <v>0.5714285714285714</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L27">
+        <v>54</v>
+      </c>
+      <c r="M27">
+        <v>54</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
         <v>40</v>
-      </c>
-      <c r="M27">
-        <v>40</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>30</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1576,13 +1579,13 @@
         <v>48</v>
       </c>
       <c r="K28">
-        <v>0.5638297872340425</v>
+        <v>0.5571428571428572</v>
       </c>
       <c r="L28">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="M28">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1594,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1602,13 +1605,13 @@
         <v>49</v>
       </c>
       <c r="K29">
-        <v>0.4831460674157304</v>
+        <v>0.5393258426966292</v>
       </c>
       <c r="L29">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="M29">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1620,7 +1623,33 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>46</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K30">
+        <v>0.3205128205128205</v>
+      </c>
+      <c r="L30">
+        <v>25</v>
+      </c>
+      <c r="M30">
+        <v>25</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
